--- a/Code/Results/Cases/Case_2_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.75778665664785</v>
+        <v>7.24749128347</v>
       </c>
       <c r="C2">
-        <v>6.511850010440506</v>
+        <v>5.608244049269726</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.9914121425508</v>
+        <v>13.21107360574126</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>15.90681570697556</v>
+        <v>22.26228912007355</v>
       </c>
       <c r="H2">
-        <v>7.551987907445376</v>
+        <v>12.78597287451445</v>
       </c>
       <c r="I2">
-        <v>11.07066532493686</v>
+        <v>18.26165178571049</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.68131624542866</v>
+        <v>8.279231250906387</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.27496332938624</v>
+        <v>12.87468222577749</v>
       </c>
       <c r="N2">
-        <v>11.56455713287457</v>
+        <v>17.51817861921914</v>
       </c>
       <c r="O2">
-        <v>11.49496772758723</v>
+        <v>18.57301426752911</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.06961553573244</v>
+        <v>6.939430588932619</v>
       </c>
       <c r="C3">
-        <v>6.255593552977946</v>
+        <v>5.508998543217425</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.10774569409596</v>
+        <v>12.99699615621783</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>15.83502922447763</v>
+        <v>22.35556290807613</v>
       </c>
       <c r="H3">
-        <v>7.639060822890628</v>
+        <v>12.82998753553376</v>
       </c>
       <c r="I3">
-        <v>11.26186264108121</v>
+        <v>18.34597976387236</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.16647609294406</v>
+        <v>8.053272603469672</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.38057382374996</v>
+        <v>12.69609018909863</v>
       </c>
       <c r="N3">
-        <v>11.71377784892284</v>
+        <v>17.56672653108214</v>
       </c>
       <c r="O3">
-        <v>11.59786383555242</v>
+        <v>18.64956194940254</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.62381552074038</v>
+        <v>6.743681868787177</v>
       </c>
       <c r="C4">
-        <v>6.092523232689294</v>
+        <v>5.446572816577784</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.54858080804748</v>
+        <v>12.86841301823543</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>15.81311067895127</v>
+        <v>22.42022031313576</v>
       </c>
       <c r="H4">
-        <v>7.696469122690572</v>
+        <v>12.85879324644586</v>
       </c>
       <c r="I4">
-        <v>11.38635802888808</v>
+        <v>18.40093858598185</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.835813664479595</v>
+        <v>7.909838938330773</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.80184947968577</v>
+        <v>12.58806153920596</v>
       </c>
       <c r="N4">
-        <v>11.80811804645216</v>
+        <v>17.59807926552753</v>
       </c>
       <c r="O4">
-        <v>11.67063016656857</v>
+        <v>18.70022514835245</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.43634611482755</v>
+        <v>6.662365131775553</v>
       </c>
       <c r="C5">
-        <v>6.024688653560071</v>
+        <v>5.420779110183501</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.31677983713429</v>
+        <v>12.81681008934248</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>15.80952557254905</v>
+        <v>22.44841704270807</v>
       </c>
       <c r="H5">
-        <v>7.720828291028347</v>
+        <v>12.87097993927804</v>
       </c>
       <c r="I5">
-        <v>11.43882263512628</v>
+        <v>18.42413521125074</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.69749699627903</v>
+        <v>7.850260391073549</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.55857997987783</v>
+        <v>12.54450242142478</v>
       </c>
       <c r="N5">
-        <v>11.84725240461612</v>
+        <v>17.61124501211892</v>
       </c>
       <c r="O5">
-        <v>11.70259073313514</v>
+        <v>18.72179091954314</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.4048681902338</v>
+        <v>6.648772631830398</v>
       </c>
       <c r="C6">
-        <v>6.013343161327407</v>
+        <v>5.416475248956991</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.27805961596299</v>
+        <v>12.80829172266638</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>15.80924634750814</v>
+        <v>22.45321044635615</v>
       </c>
       <c r="H6">
-        <v>7.724930626932047</v>
+        <v>12.873030608435</v>
       </c>
       <c r="I6">
-        <v>11.44763746928744</v>
+        <v>18.42803535556852</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.674317009970469</v>
+        <v>7.840300888677909</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.51773648096488</v>
+        <v>12.53729902224255</v>
       </c>
       <c r="N6">
-        <v>11.85379249802959</v>
+        <v>17.61345471289918</v>
       </c>
       <c r="O6">
-        <v>11.70803420846021</v>
+        <v>18.72542744588489</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.62131066312197</v>
+        <v>6.742591310543382</v>
       </c>
       <c r="C7">
-        <v>6.091613904948061</v>
+        <v>5.446226363394262</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.54547024899346</v>
+        <v>12.86771376147947</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>15.81304098768417</v>
+        <v>22.42059311274921</v>
       </c>
       <c r="H7">
-        <v>7.696793766940385</v>
+        <v>12.85895578543785</v>
       </c>
       <c r="I7">
-        <v>11.38705864010301</v>
+        <v>18.40124818200862</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.833962597775942</v>
+        <v>7.909039937035041</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.79859875569653</v>
+        <v>12.58747213824792</v>
       </c>
       <c r="N7">
-        <v>11.80864302380647</v>
+        <v>17.59825524602837</v>
       </c>
       <c r="O7">
-        <v>11.67105198724923</v>
+        <v>18.70051226757538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52535629920119</v>
+        <v>7.142703951855546</v>
       </c>
       <c r="C8">
-        <v>6.424713982808028</v>
+        <v>5.574344664412831</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.69029208626214</v>
+        <v>13.13671198251954</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>15.87733417070817</v>
+        <v>22.29291134604323</v>
       </c>
       <c r="H8">
-        <v>7.581174824012322</v>
+        <v>12.80077982209571</v>
       </c>
       <c r="I8">
-        <v>11.13508284255994</v>
+        <v>18.29006815983861</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.5068672442945</v>
+        <v>8.20232500285179</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.97271017217897</v>
+        <v>12.81279856925573</v>
       </c>
       <c r="N8">
-        <v>11.61544819413783</v>
+        <v>17.53459804242424</v>
       </c>
       <c r="O8">
-        <v>11.52839291497607</v>
+        <v>18.59864719960339</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.11229593417718</v>
+        <v>7.90860067638415</v>
       </c>
       <c r="C9">
-        <v>7.030328381391271</v>
+        <v>5.812954777893348</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.84903193925154</v>
+        <v>13.68351923569379</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>16.18837752844922</v>
+        <v>22.10153450559298</v>
       </c>
       <c r="H9">
-        <v>7.387078261085166</v>
+        <v>12.70080639525396</v>
       </c>
       <c r="I9">
-        <v>10.69998012338695</v>
+        <v>18.09726016033795</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.70789895269008</v>
+        <v>8.738130264027127</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.04119385045567</v>
+        <v>13.26517514135763</v>
       </c>
       <c r="N9">
-        <v>11.25786643766624</v>
+        <v>17.42197376302952</v>
       </c>
       <c r="O9">
-        <v>11.32955923828411</v>
+        <v>18.4279909248318</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.16393316384713</v>
+        <v>8.477461341941</v>
       </c>
       <c r="C10">
-        <v>7.443917968760775</v>
+        <v>5.979530148447665</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.48295565723706</v>
+        <v>14.09246255652562</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>16.5406282936066</v>
+        <v>21.99741671228051</v>
       </c>
       <c r="H10">
-        <v>7.266373650161976</v>
+        <v>12.63593206537272</v>
       </c>
       <c r="I10">
-        <v>10.42049081053625</v>
+        <v>17.97094137021003</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.51488809978128</v>
+        <v>9.105318635746718</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.41992695740251</v>
+        <v>13.60072833824517</v>
       </c>
       <c r="N10">
-        <v>11.00771403040113</v>
+        <v>17.3466077812066</v>
       </c>
       <c r="O10">
-        <v>11.23977074247075</v>
+        <v>18.32040454815495</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.61751242770986</v>
+        <v>8.722544866668425</v>
       </c>
       <c r="C11">
-        <v>7.624903609256399</v>
+        <v>6.053213525416847</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.19449636913922</v>
+        <v>14.27911508099577</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>16.7296112591512</v>
+        <v>21.95807465993182</v>
       </c>
       <c r="H11">
-        <v>7.216708784138556</v>
+        <v>12.60827612780918</v>
       </c>
       <c r="I11">
-        <v>10.30314628283362</v>
+        <v>17.91679927155738</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.86520716369647</v>
+        <v>9.266166324173833</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.01705669556373</v>
+        <v>13.75340179532223</v>
       </c>
       <c r="N11">
-        <v>10.89655800506348</v>
+        <v>17.3139108760767</v>
       </c>
       <c r="O11">
-        <v>11.21273230303455</v>
+        <v>18.27533661029522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.78570856689217</v>
+        <v>8.813365936647703</v>
       </c>
       <c r="C12">
-        <v>7.6923865551732</v>
+        <v>6.080799090263749</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.45945979612598</v>
+        <v>14.34980823899814</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>16.80542660673832</v>
+        <v>21.9443378862707</v>
       </c>
       <c r="H12">
-        <v>7.19870143103025</v>
+        <v>12.59807005749376</v>
       </c>
       <c r="I12">
-        <v>10.26022267178661</v>
+        <v>17.89677426324286</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.99542678663891</v>
+        <v>9.326152684674295</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.2389016039661</v>
+        <v>13.81116477962764</v>
       </c>
       <c r="N12">
-        <v>10.85483969185979</v>
+        <v>17.3017567134239</v>
       </c>
       <c r="O12">
-        <v>11.20461480739373</v>
+        <v>18.25882865928999</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.74964292807062</v>
+        <v>8.793894589022052</v>
       </c>
       <c r="C13">
-        <v>7.677900010720258</v>
+        <v>6.074872373444434</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.40259308619109</v>
+        <v>14.33458388044953</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>16.78890769141794</v>
+        <v>21.94724458447488</v>
       </c>
       <c r="H13">
-        <v>7.202543307328328</v>
+        <v>12.60025626208609</v>
       </c>
       <c r="I13">
-        <v>10.26939801530241</v>
+        <v>17.90106577474864</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.9674904310219</v>
+        <v>9.313275100809735</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.19131264470838</v>
+        <v>13.79872762491259</v>
       </c>
       <c r="N13">
-        <v>10.86380792406786</v>
+        <v>17.30436422715889</v>
       </c>
       <c r="O13">
-        <v>11.20626650682955</v>
+        <v>18.26235909104831</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.63142142033919</v>
+        <v>8.730056673251269</v>
       </c>
       <c r="C14">
-        <v>7.630476676215961</v>
+        <v>6.055489441319761</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.21638438113253</v>
+        <v>14.28493124618699</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>16.73576283133961</v>
+        <v>21.95692121280515</v>
       </c>
       <c r="H14">
-        <v>7.215211008125889</v>
+        <v>12.60743112573565</v>
       </c>
       <c r="I14">
-        <v>10.29958399174769</v>
+        <v>17.9151422342158</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.87596939821953</v>
+        <v>9.271120118438967</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.03539339421211</v>
+        <v>13.7581553266439</v>
       </c>
       <c r="N14">
-        <v>10.89311834773368</v>
+        <v>17.31290639214814</v>
       </c>
       <c r="O14">
-        <v>11.21202116574583</v>
+        <v>18.27396729476651</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.55854334573536</v>
+        <v>8.690694927200649</v>
       </c>
       <c r="C15">
-        <v>7.601290870301488</v>
+        <v>6.043575135272079</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.1017451478039</v>
+        <v>14.25451686574132</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>16.70376686164824</v>
+        <v>21.96299986979796</v>
       </c>
       <c r="H15">
-        <v>7.223075893599222</v>
+        <v>12.61186065416483</v>
       </c>
       <c r="I15">
-        <v>10.31827397141054</v>
+        <v>17.92382664463476</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.81959194116145</v>
+        <v>9.245177820785116</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.93933312477754</v>
+        <v>13.73329534918416</v>
       </c>
       <c r="N15">
-        <v>10.911120385594</v>
+        <v>17.31816831063625</v>
       </c>
       <c r="O15">
-        <v>11.21582641824654</v>
+        <v>18.28115039965814</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.13379154723841</v>
+        <v>8.46116739614078</v>
       </c>
       <c r="C16">
-        <v>7.431943995584099</v>
+        <v>5.974671283570161</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.43582295217667</v>
+        <v>14.08027020589759</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>16.52886685939119</v>
+        <v>22.00014989514079</v>
       </c>
       <c r="H16">
-        <v>7.269728703060268</v>
+        <v>12.63777676888422</v>
       </c>
       <c r="I16">
-        <v>10.42836527679979</v>
+        <v>17.97454649860263</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.49165385158381</v>
+        <v>9.094679411994944</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.38030212904322</v>
+        <v>13.59074658650312</v>
       </c>
       <c r="N16">
-        <v>11.01503097375212</v>
+        <v>17.34877647339952</v>
       </c>
       <c r="O16">
-        <v>11.24182714194307</v>
+        <v>18.3234279002039</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.86686517132426</v>
+        <v>8.316838392942667</v>
       </c>
       <c r="C17">
-        <v>7.326203635902153</v>
+        <v>5.931853473197072</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>18.0192276603691</v>
+        <v>13.9734788965509</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>16.42902493442858</v>
+        <v>22.02500042415461</v>
       </c>
       <c r="H17">
-        <v>7.299723122760494</v>
+        <v>12.65415060141313</v>
       </c>
       <c r="I17">
-        <v>10.49848202256406</v>
+        <v>18.00651196396572</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.28615509851813</v>
+        <v>9.000743761857228</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.02968693215169</v>
+        <v>13.50326508111281</v>
       </c>
       <c r="N17">
-        <v>11.07944877718686</v>
+        <v>17.36795958181628</v>
       </c>
       <c r="O17">
-        <v>11.26140964087078</v>
+        <v>18.35035681431059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.71099976649336</v>
+        <v>8.232535957598733</v>
       </c>
       <c r="C18">
-        <v>7.264711817195485</v>
+        <v>5.907029720053374</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.77662004718248</v>
+        <v>13.91211841702663</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>16.37429832828427</v>
+        <v>22.04004840003017</v>
       </c>
       <c r="H18">
-        <v>7.317465791707432</v>
+        <v>12.66374307812367</v>
       </c>
       <c r="I18">
-        <v>10.53972657423586</v>
+        <v>18.02521024255945</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.16637875668967</v>
+        <v>8.946133766485847</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.8251894102164</v>
+        <v>13.45295394641887</v>
       </c>
       <c r="N18">
-        <v>11.11674895061276</v>
+        <v>17.37914266612553</v>
       </c>
       <c r="O18">
-        <v>11.27396416781801</v>
+        <v>18.36621014248997</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.65782510924056</v>
+        <v>8.203771958375414</v>
       </c>
       <c r="C19">
-        <v>7.243776987256396</v>
+        <v>5.898591644669039</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.69396086836066</v>
+        <v>13.89135604764653</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>16.35622853222298</v>
+        <v>22.04527274726109</v>
       </c>
       <c r="H19">
-        <v>7.323556099993903</v>
+        <v>12.66702093445162</v>
       </c>
       <c r="I19">
-        <v>10.55384549317045</v>
+        <v>18.03159485007617</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.12555426843412</v>
+        <v>8.927545098097415</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.75546214935131</v>
+        <v>13.43592218465285</v>
       </c>
       <c r="N19">
-        <v>11.12942104631615</v>
+        <v>17.38295476303356</v>
       </c>
       <c r="O19">
-        <v>11.27843259159009</v>
+        <v>18.37164037656235</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.89552173846596</v>
+        <v>8.332335927657947</v>
       </c>
       <c r="C20">
-        <v>7.337529689744664</v>
+        <v>5.93643191355738</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.0638841394237</v>
+        <v>13.98484105757089</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>16.43937292105199</v>
+        <v>22.02227688618203</v>
       </c>
       <c r="H20">
-        <v>7.296479064700232</v>
+        <v>12.65238950174192</v>
       </c>
       <c r="I20">
-        <v>10.49092253566321</v>
+        <v>18.00307683487532</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.3081944086317</v>
+        <v>9.010803724171344</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.06730338956501</v>
+        <v>13.51257742982393</v>
       </c>
       <c r="N20">
-        <v>11.07256568773795</v>
+        <v>17.36590204387254</v>
       </c>
       <c r="O20">
-        <v>11.25919044283615</v>
+        <v>18.34745244884006</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.66624262268356</v>
+        <v>8.748861454689923</v>
       </c>
       <c r="C21">
-        <v>7.644434777726006</v>
+        <v>6.061191395525111</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.27119931596964</v>
+        <v>14.29951571075252</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>16.75125655206691</v>
+        <v>21.95404737900481</v>
       </c>
       <c r="H21">
-        <v>7.211468113713987</v>
+        <v>12.60531645968095</v>
       </c>
       <c r="I21">
-        <v>10.2906757171924</v>
+        <v>17.91099468030643</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.90291768628534</v>
+        <v>9.283527361609185</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.08130627220437</v>
+        <v>13.7700742146317</v>
       </c>
       <c r="N21">
-        <v>10.88449905584129</v>
+        <v>17.31039118495117</v>
       </c>
       <c r="O21">
-        <v>11.21027220949602</v>
+        <v>18.27054252168592</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.14918232949249</v>
+        <v>9.009499467358802</v>
       </c>
       <c r="C22">
-        <v>7.838873861574148</v>
+        <v>6.140876132172293</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.03417238889038</v>
+        <v>14.50520909653044</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>16.97991041427562</v>
+        <v>21.91622703526744</v>
       </c>
       <c r="H22">
-        <v>7.160593342660444</v>
+        <v>12.57610555566992</v>
       </c>
       <c r="I22">
-        <v>10.16867340143869</v>
+        <v>17.85359646655099</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.27738359586997</v>
+        <v>9.456374022162457</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.71912338266333</v>
+        <v>13.93804069813758</v>
       </c>
       <c r="N22">
-        <v>10.76376469503907</v>
+        <v>17.27543698251399</v>
       </c>
       <c r="O22">
-        <v>11.1907315753061</v>
+        <v>18.22353222791889</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.89332614692632</v>
+        <v>8.871456845287776</v>
       </c>
       <c r="C23">
-        <v>7.735666226695083</v>
+        <v>6.098521392453357</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.62931564358689</v>
+        <v>14.39544836366556</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>16.85556950545099</v>
+        <v>21.93579046366133</v>
       </c>
       <c r="H23">
-        <v>7.187301490722704</v>
+        <v>12.59155383745824</v>
       </c>
       <c r="I23">
-        <v>10.23293952401196</v>
+        <v>17.88397637628738</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.07883145078313</v>
+        <v>9.364626186065001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.38096863906131</v>
+        <v>13.8484411742253</v>
       </c>
       <c r="N23">
-        <v>10.8280053172065</v>
+        <v>17.2939716985776</v>
       </c>
       <c r="O23">
-        <v>11.19997766906411</v>
+        <v>18.24832427027451</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.88257359846892</v>
+        <v>8.325333620331417</v>
       </c>
       <c r="C24">
-        <v>7.332411360203626</v>
+        <v>5.934362644934428</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.04370461163843</v>
+        <v>13.97970410878455</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>16.43468627712648</v>
+        <v>22.0235058275996</v>
       </c>
       <c r="H24">
-        <v>7.297944154103599</v>
+        <v>12.65318513749025</v>
       </c>
       <c r="I24">
-        <v>10.4943372797344</v>
+        <v>18.00462885712301</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.29823551901435</v>
+        <v>9.006257497539199</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.05030610086919</v>
+        <v>13.50836736522393</v>
       </c>
       <c r="N24">
-        <v>11.07567670501995</v>
+        <v>17.3668317755771</v>
       </c>
       <c r="O24">
-        <v>11.26018971488423</v>
+        <v>18.34876435525065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.70302398284855</v>
+        <v>7.687113556947622</v>
       </c>
       <c r="C25">
-        <v>6.871857395330334</v>
+        <v>5.749866607602653</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.24209228438528</v>
+        <v>13.53400036660234</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>16.08321405550418</v>
+        <v>22.14693509030964</v>
       </c>
       <c r="H25">
-        <v>7.435896663678669</v>
+        <v>12.72634401460281</v>
       </c>
       <c r="I25">
-        <v>10.81096441137836</v>
+        <v>18.14672407513895</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.39605090640977</v>
+        <v>8.597663827301737</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.50652345278738</v>
+        <v>13.14200354154307</v>
       </c>
       <c r="N25">
-        <v>11.35236695274193</v>
+        <v>17.45114128411849</v>
       </c>
       <c r="O25">
-        <v>11.37398454191758</v>
+        <v>18.47103698206923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.24749128347</v>
+        <v>11.75778665664789</v>
       </c>
       <c r="C2">
-        <v>5.608244049269726</v>
+        <v>6.511850010440376</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.21107360574126</v>
+        <v>14.99141214255081</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>22.26228912007355</v>
+        <v>15.90681570697549</v>
       </c>
       <c r="H2">
-        <v>12.78597287451445</v>
+        <v>7.551987907445379</v>
       </c>
       <c r="I2">
-        <v>18.26165178571049</v>
+        <v>11.07066532493681</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.279231250906387</v>
+        <v>10.6813162454287</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.87468222577749</v>
+        <v>14.27496332938622</v>
       </c>
       <c r="N2">
-        <v>17.51817861921914</v>
+        <v>11.56455713287457</v>
       </c>
       <c r="O2">
-        <v>18.57301426752911</v>
+        <v>11.49496772758721</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.939430588932619</v>
+        <v>11.06961553573248</v>
       </c>
       <c r="C3">
-        <v>5.508998543217425</v>
+        <v>6.255593552977827</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.99699615621783</v>
+        <v>14.10774569409594</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>22.35556290807613</v>
+        <v>15.8350292244776</v>
       </c>
       <c r="H3">
-        <v>12.82998753553376</v>
+        <v>7.639060822890626</v>
       </c>
       <c r="I3">
-        <v>18.34597976387236</v>
+        <v>11.2618626410812</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.053272603469672</v>
+        <v>10.16647609294405</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.69609018909863</v>
+        <v>13.38057382374998</v>
       </c>
       <c r="N3">
-        <v>17.56672653108214</v>
+        <v>11.71377784892284</v>
       </c>
       <c r="O3">
-        <v>18.64956194940254</v>
+        <v>11.59786383555241</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.743681868787177</v>
+        <v>10.62381552074041</v>
       </c>
       <c r="C4">
-        <v>5.446572816577784</v>
+        <v>6.092523232689161</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.86841301823543</v>
+        <v>13.54858080804749</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>22.42022031313576</v>
+        <v>15.81311067895129</v>
       </c>
       <c r="H4">
-        <v>12.85879324644586</v>
+        <v>7.696469122690577</v>
       </c>
       <c r="I4">
-        <v>18.40093858598185</v>
+        <v>11.38635802888806</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.909838938330773</v>
+        <v>9.835813664479547</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.58806153920596</v>
+        <v>12.80184947968575</v>
       </c>
       <c r="N4">
-        <v>17.59807926552753</v>
+        <v>11.80811804645216</v>
       </c>
       <c r="O4">
-        <v>18.70022514835245</v>
+        <v>11.67063016656862</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.662365131775553</v>
+        <v>10.43634611482758</v>
       </c>
       <c r="C5">
-        <v>5.420779110183501</v>
+        <v>6.024688653560236</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.81681008934248</v>
+        <v>13.3167798371343</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>22.44841704270807</v>
+        <v>15.80952557254898</v>
       </c>
       <c r="H5">
-        <v>12.87097993927804</v>
+        <v>7.720828291028347</v>
       </c>
       <c r="I5">
-        <v>18.42413521125074</v>
+        <v>11.43882263512626</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.850260391073549</v>
+        <v>9.697496996279071</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.54450242142478</v>
+        <v>12.55857997987789</v>
       </c>
       <c r="N5">
-        <v>17.61124501211892</v>
+        <v>11.84725240461615</v>
       </c>
       <c r="O5">
-        <v>18.72179091954314</v>
+        <v>11.70259073313512</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.648772631830398</v>
+        <v>10.4048681902338</v>
       </c>
       <c r="C6">
-        <v>5.416475248956991</v>
+        <v>6.013343161327296</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.80829172266638</v>
+        <v>13.278059615963</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>22.45321044635615</v>
+        <v>15.80924634750803</v>
       </c>
       <c r="H6">
-        <v>12.873030608435</v>
+        <v>7.724930626931919</v>
       </c>
       <c r="I6">
-        <v>18.42803535556852</v>
+        <v>11.44763746928732</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.840300888677909</v>
+        <v>9.67431700997051</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.53729902224255</v>
+        <v>12.51773648096491</v>
       </c>
       <c r="N6">
-        <v>17.61345471289918</v>
+        <v>11.85379249802953</v>
       </c>
       <c r="O6">
-        <v>18.72542744588489</v>
+        <v>11.70803420846012</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.742591310543382</v>
+        <v>10.62131066312203</v>
       </c>
       <c r="C7">
-        <v>5.446226363394262</v>
+        <v>6.091613904948003</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.86771376147947</v>
+        <v>13.54547024899349</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>22.42059311274921</v>
+        <v>15.8130409876843</v>
       </c>
       <c r="H7">
-        <v>12.85895578543785</v>
+        <v>7.696793766940398</v>
       </c>
       <c r="I7">
-        <v>18.40124818200862</v>
+        <v>11.38705864010306</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.909039937035041</v>
+        <v>9.833962597775971</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.58747213824792</v>
+        <v>12.7985987556965</v>
       </c>
       <c r="N7">
-        <v>17.59825524602837</v>
+        <v>11.80864302380649</v>
       </c>
       <c r="O7">
-        <v>18.70051226757538</v>
+        <v>11.6710519872493</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.142703951855546</v>
+        <v>11.52535629920113</v>
       </c>
       <c r="C8">
-        <v>5.574344664412831</v>
+        <v>6.424713982808099</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.13671198251954</v>
+        <v>14.69029208626214</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>22.29291134604323</v>
+        <v>15.87733417070833</v>
       </c>
       <c r="H8">
-        <v>12.80077982209571</v>
+        <v>7.581174824012383</v>
       </c>
       <c r="I8">
-        <v>18.29006815983861</v>
+        <v>11.13508284256008</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.20232500285179</v>
+        <v>10.50686724429445</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.81279856925573</v>
+        <v>13.97271017217894</v>
       </c>
       <c r="N8">
-        <v>17.53459804242424</v>
+        <v>11.61544819413786</v>
       </c>
       <c r="O8">
-        <v>18.59864719960339</v>
+        <v>11.52839291497613</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.90860067638415</v>
+        <v>13.1122959341772</v>
       </c>
       <c r="C9">
-        <v>5.812954777893348</v>
+        <v>7.030328381391168</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.68351923569379</v>
+        <v>16.84903193925156</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>22.10153450559298</v>
+        <v>16.18837752844927</v>
       </c>
       <c r="H9">
-        <v>12.70080639525396</v>
+        <v>7.387078261085113</v>
       </c>
       <c r="I9">
-        <v>18.09726016033795</v>
+        <v>10.69998012338691</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.738130264027127</v>
+        <v>11.70789895269008</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.26517514135763</v>
+        <v>16.04119385045569</v>
       </c>
       <c r="N9">
-        <v>17.42197376302952</v>
+        <v>11.25786643766621</v>
       </c>
       <c r="O9">
-        <v>18.4279909248318</v>
+        <v>11.3295592382841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.477461341941</v>
+        <v>14.16393316384713</v>
       </c>
       <c r="C10">
-        <v>5.979530148447665</v>
+        <v>7.443917968760837</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.09246255652562</v>
+        <v>18.48295565723707</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>21.99741671228051</v>
+        <v>16.54062829360657</v>
       </c>
       <c r="H10">
-        <v>12.63593206537272</v>
+        <v>7.266373650161922</v>
       </c>
       <c r="I10">
-        <v>17.97094137021003</v>
+        <v>10.42049081053617</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.105318635746718</v>
+        <v>12.51488809978127</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.60072833824517</v>
+        <v>17.41992695740249</v>
       </c>
       <c r="N10">
-        <v>17.3466077812066</v>
+        <v>11.00771403040106</v>
       </c>
       <c r="O10">
-        <v>18.32040454815495</v>
+        <v>11.23977074247066</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.722544866668425</v>
+        <v>14.61751242770994</v>
       </c>
       <c r="C11">
-        <v>6.053213525416847</v>
+        <v>7.624903609256362</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.27911508099577</v>
+        <v>19.19449636913924</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>21.95807465993182</v>
+        <v>16.72961125915117</v>
       </c>
       <c r="H11">
-        <v>12.60827612780918</v>
+        <v>7.216708784138522</v>
       </c>
       <c r="I11">
-        <v>17.91679927155738</v>
+        <v>10.30314628283356</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.266166324173833</v>
+        <v>12.86520716369651</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.75340179532223</v>
+        <v>18.01705669556376</v>
       </c>
       <c r="N11">
-        <v>17.3139108760767</v>
+        <v>10.89655800506345</v>
       </c>
       <c r="O11">
-        <v>18.27533661029522</v>
+        <v>11.21273230303448</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.813365936647703</v>
+        <v>14.78570856689218</v>
       </c>
       <c r="C12">
-        <v>6.080799090263749</v>
+        <v>7.692386555173271</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.34980823899814</v>
+        <v>19.45945979612599</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>21.9443378862707</v>
+        <v>16.80542660673813</v>
       </c>
       <c r="H12">
-        <v>12.59807005749376</v>
+        <v>7.198701431030205</v>
       </c>
       <c r="I12">
-        <v>17.89677426324286</v>
+        <v>10.2602226717865</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.326152684674295</v>
+        <v>12.99542678663894</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.81116477962764</v>
+        <v>18.23890160396611</v>
       </c>
       <c r="N12">
-        <v>17.3017567134239</v>
+        <v>10.8548396918597</v>
       </c>
       <c r="O12">
-        <v>18.25882865928999</v>
+        <v>11.20461480739362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.793894589022052</v>
+        <v>14.74964292807064</v>
       </c>
       <c r="C13">
-        <v>6.074872373444434</v>
+        <v>7.677900010720339</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.33458388044953</v>
+        <v>19.40259308619115</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>21.94724458447488</v>
+        <v>16.78890769141779</v>
       </c>
       <c r="H13">
-        <v>12.60025626208609</v>
+        <v>7.202543307328265</v>
       </c>
       <c r="I13">
-        <v>17.90106577474864</v>
+        <v>10.26939801530225</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.313275100809735</v>
+        <v>12.96749043102194</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.79872762491259</v>
+        <v>18.19131264470843</v>
       </c>
       <c r="N13">
-        <v>17.30436422715889</v>
+        <v>10.86380792406776</v>
       </c>
       <c r="O13">
-        <v>18.26235909104831</v>
+        <v>11.20626650682943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.730056673251269</v>
+        <v>14.63142142033925</v>
       </c>
       <c r="C14">
-        <v>6.055489441319761</v>
+        <v>7.630476676215975</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.28493124618699</v>
+        <v>19.21638438113252</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>21.95692121280515</v>
+        <v>16.73576283133964</v>
       </c>
       <c r="H14">
-        <v>12.60743112573565</v>
+        <v>7.215211008125897</v>
       </c>
       <c r="I14">
-        <v>17.9151422342158</v>
+        <v>10.29958399174769</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.271120118438967</v>
+        <v>12.87596939821956</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.7581553266439</v>
+        <v>18.03539339421215</v>
       </c>
       <c r="N14">
-        <v>17.31290639214814</v>
+        <v>10.89311834773371</v>
       </c>
       <c r="O14">
-        <v>18.27396729476651</v>
+        <v>11.21202116574584</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.690694927200649</v>
+        <v>14.55854334573539</v>
       </c>
       <c r="C15">
-        <v>6.043575135272079</v>
+        <v>7.601290870301685</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.25451686574132</v>
+        <v>19.10174514780387</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>21.96299986979796</v>
+        <v>16.7037668616482</v>
       </c>
       <c r="H15">
-        <v>12.61186065416483</v>
+        <v>7.223075893599126</v>
       </c>
       <c r="I15">
-        <v>17.92382664463476</v>
+        <v>10.31827397141042</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.245177820785116</v>
+        <v>12.81959194116152</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.73329534918416</v>
+        <v>17.93933312477754</v>
       </c>
       <c r="N15">
-        <v>17.31816831063625</v>
+        <v>10.91112038559393</v>
       </c>
       <c r="O15">
-        <v>18.28115039965814</v>
+        <v>11.21582641824642</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.46116739614078</v>
+        <v>14.13379154723844</v>
       </c>
       <c r="C16">
-        <v>5.974671283570161</v>
+        <v>7.431943995584001</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.08027020589759</v>
+        <v>18.43582295217666</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>22.00014989514079</v>
+        <v>16.52886685939128</v>
       </c>
       <c r="H16">
-        <v>12.63777676888422</v>
+        <v>7.269728703060379</v>
       </c>
       <c r="I16">
-        <v>17.97454649860263</v>
+        <v>10.42836527679981</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.094679411994944</v>
+        <v>12.49165385158382</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.59074658650312</v>
+        <v>17.38030212904322</v>
       </c>
       <c r="N16">
-        <v>17.34877647339952</v>
+        <v>11.01503097375222</v>
       </c>
       <c r="O16">
-        <v>18.3234279002039</v>
+        <v>11.24182714194313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.316838392942667</v>
+        <v>13.86686517132429</v>
       </c>
       <c r="C17">
-        <v>5.931853473197072</v>
+        <v>7.326203635902139</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.9734788965509</v>
+        <v>18.01922766036913</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>22.02500042415461</v>
+        <v>16.42902493442855</v>
       </c>
       <c r="H17">
-        <v>12.65415060141313</v>
+        <v>7.299723122760443</v>
       </c>
       <c r="I17">
-        <v>18.00651196396572</v>
+        <v>10.49848202256399</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.000743761857228</v>
+        <v>12.28615509851815</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.50326508111281</v>
+        <v>17.02968693215173</v>
       </c>
       <c r="N17">
-        <v>17.36795958181628</v>
+        <v>11.07944877718679</v>
       </c>
       <c r="O17">
-        <v>18.35035681431059</v>
+        <v>11.26140964087069</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.232535957598733</v>
+        <v>13.71099976649339</v>
       </c>
       <c r="C18">
-        <v>5.907029720053374</v>
+        <v>7.264711817195348</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.91211841702663</v>
+        <v>17.77662004718248</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>22.04004840003017</v>
+        <v>16.37429832828414</v>
       </c>
       <c r="H18">
-        <v>12.66374307812367</v>
+        <v>7.317465791707381</v>
       </c>
       <c r="I18">
-        <v>18.02521024255945</v>
+        <v>10.53972657423573</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.946133766485847</v>
+        <v>12.16637875668968</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.45295394641887</v>
+        <v>16.82518941021641</v>
       </c>
       <c r="N18">
-        <v>17.37914266612553</v>
+        <v>11.11674895061266</v>
       </c>
       <c r="O18">
-        <v>18.36621014248997</v>
+        <v>11.27396416781793</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.203771958375414</v>
+        <v>13.65782510924067</v>
       </c>
       <c r="C19">
-        <v>5.898591644669039</v>
+        <v>7.243776987256097</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.89135604764653</v>
+        <v>17.69396086836069</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>22.04527274726109</v>
+        <v>16.3562285322229</v>
       </c>
       <c r="H19">
-        <v>12.66702093445162</v>
+        <v>7.323556099993736</v>
       </c>
       <c r="I19">
-        <v>18.03159485007617</v>
+        <v>10.55384549317026</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.927545098097415</v>
+        <v>12.12555426843414</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.43592218465285</v>
+        <v>16.75546214935135</v>
       </c>
       <c r="N19">
-        <v>17.38295476303356</v>
+        <v>11.12942104631608</v>
       </c>
       <c r="O19">
-        <v>18.37164037656235</v>
+        <v>11.27843259158997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.332335927657947</v>
+        <v>13.895521738466</v>
       </c>
       <c r="C20">
-        <v>5.93643191355738</v>
+        <v>7.337529689744454</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.98484105757089</v>
+        <v>18.06388413942373</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>22.02227688618203</v>
+        <v>16.43937292105219</v>
       </c>
       <c r="H20">
-        <v>12.65238950174192</v>
+        <v>7.29647906470024</v>
       </c>
       <c r="I20">
-        <v>18.00307683487532</v>
+        <v>10.49092253566322</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.010803724171344</v>
+        <v>12.30819440863164</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.51257742982393</v>
+        <v>17.06730338956501</v>
       </c>
       <c r="N20">
-        <v>17.36590204387254</v>
+        <v>11.07256568773795</v>
       </c>
       <c r="O20">
-        <v>18.34745244884006</v>
+        <v>11.25919044283623</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.748861454689923</v>
+        <v>14.66624262268354</v>
       </c>
       <c r="C21">
-        <v>6.061191395525111</v>
+        <v>7.644434777726065</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.29951571075252</v>
+        <v>19.27119931596965</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>21.95404737900481</v>
+        <v>16.75125655206691</v>
       </c>
       <c r="H21">
-        <v>12.60531645968095</v>
+        <v>7.211468113713991</v>
       </c>
       <c r="I21">
-        <v>17.91099468030643</v>
+        <v>10.29067571719238</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.283527361609185</v>
+        <v>12.90291768628534</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.7700742146317</v>
+        <v>18.08130627220437</v>
       </c>
       <c r="N21">
-        <v>17.31039118495117</v>
+        <v>10.88449905584122</v>
       </c>
       <c r="O21">
-        <v>18.27054252168592</v>
+        <v>11.21027220949599</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.009499467358802</v>
+        <v>15.1491823294925</v>
       </c>
       <c r="C22">
-        <v>6.140876132172293</v>
+        <v>7.838873861574138</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.50520909653044</v>
+        <v>20.03417238889038</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.91622703526744</v>
+        <v>16.97991041427562</v>
       </c>
       <c r="H22">
-        <v>12.57610555566992</v>
+        <v>7.160593342660444</v>
       </c>
       <c r="I22">
-        <v>17.85359646655099</v>
+        <v>10.16867340143869</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.456374022162457</v>
+        <v>13.27738359586997</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.93804069813758</v>
+        <v>18.71912338266333</v>
       </c>
       <c r="N22">
-        <v>17.27543698251399</v>
+        <v>10.76376469503907</v>
       </c>
       <c r="O22">
-        <v>18.22353222791889</v>
+        <v>11.1907315753061</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.871456845287776</v>
+        <v>14.89332614692635</v>
       </c>
       <c r="C23">
-        <v>6.098521392453357</v>
+        <v>7.735666226695168</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.39544836366556</v>
+        <v>19.62931564358688</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>21.93579046366133</v>
+        <v>16.85556950545105</v>
       </c>
       <c r="H23">
-        <v>12.59155383745824</v>
+        <v>7.18730149072271</v>
       </c>
       <c r="I23">
-        <v>17.88397637628738</v>
+        <v>10.23293952401205</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.364626186065001</v>
+        <v>13.07883145078316</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.8484411742253</v>
+        <v>18.38096863906133</v>
       </c>
       <c r="N23">
-        <v>17.2939716985776</v>
+        <v>10.82800531720653</v>
       </c>
       <c r="O23">
-        <v>18.24832427027451</v>
+        <v>11.19997766906412</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.325333620331417</v>
+        <v>13.88257359846881</v>
       </c>
       <c r="C24">
-        <v>5.934362644934428</v>
+        <v>7.332411360203912</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.97970410878455</v>
+        <v>18.04370461163842</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>22.0235058275996</v>
+        <v>16.43468627712646</v>
       </c>
       <c r="H24">
-        <v>12.65318513749025</v>
+        <v>7.297944154103646</v>
       </c>
       <c r="I24">
-        <v>18.00462885712301</v>
+        <v>10.4943372797345</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.006257497539199</v>
+        <v>12.29823551901434</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.50836736522393</v>
+        <v>17.05030610086919</v>
       </c>
       <c r="N24">
-        <v>17.3668317755771</v>
+        <v>11.07567670501999</v>
       </c>
       <c r="O24">
-        <v>18.34876435525065</v>
+        <v>11.26018971488424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.687113556947622</v>
+        <v>12.70302398284862</v>
       </c>
       <c r="C25">
-        <v>5.749866607602653</v>
+        <v>6.871857395330141</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.53400036660234</v>
+        <v>16.24209228438527</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>22.14693509030964</v>
+        <v>16.0832140555042</v>
       </c>
       <c r="H25">
-        <v>12.72634401460281</v>
+        <v>7.435896663678669</v>
       </c>
       <c r="I25">
-        <v>18.14672407513895</v>
+        <v>10.81096441137833</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.597663827301737</v>
+        <v>11.39605090640978</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.14200354154307</v>
+        <v>15.50652345278741</v>
       </c>
       <c r="N25">
-        <v>17.45114128411849</v>
+        <v>11.35236695274193</v>
       </c>
       <c r="O25">
-        <v>18.47103698206923</v>
+        <v>11.37398454191759</v>
       </c>
     </row>
   </sheetData>
